--- a/ExportSemsArchive/Resources/學期成績封存樣板.xlsx
+++ b/ExportSemsArchive/Resources/學期成績封存樣板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Visual studio 專案\學期成績封存\ExportSemsArchive\ExportSemsArchive\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ischool Work\Visual Studio Project\SHEvaluation\ExportSemsArchive\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BFD231-ECDD-404A-8F94-A595C3B385D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ADFB63-8DCF-4781-A02C-8A82C44A0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="14940" windowHeight="9228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匯出學期科目成績" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>姓名</t>
   </si>
@@ -46,79 +46,93 @@
     <t>學分數</t>
   </si>
   <si>
-    <t>修課科目代碼</t>
-  </si>
-  <si>
     <t>成績年級</t>
   </si>
   <si>
     <t>科目</t>
   </si>
   <si>
+    <t>修課及格標準</t>
+  </si>
+  <si>
+    <t>科別</t>
+  </si>
+  <si>
+    <t>必選修</t>
+  </si>
+  <si>
+    <t>重修成績</t>
+  </si>
+  <si>
+    <t>學號</t>
+  </si>
+  <si>
+    <t>學生系統編號</t>
+  </si>
+  <si>
+    <t>註記</t>
+  </si>
+  <si>
+    <t>學期</t>
+  </si>
+  <si>
+    <t>分項類別</t>
+  </si>
+  <si>
+    <t>學年調整成績</t>
+  </si>
+  <si>
+    <t>不需評分</t>
+  </si>
+  <si>
+    <t>修課補考標準</t>
+  </si>
+  <si>
+    <t>不計學分</t>
+  </si>
+  <si>
+    <t>重修學期</t>
+  </si>
+  <si>
+    <t>座號</t>
+  </si>
+  <si>
+    <t>班級</t>
+  </si>
+  <si>
+    <t>科目級別</t>
+  </si>
+  <si>
+    <t>學年度</t>
+  </si>
+  <si>
+    <t>修課直接指定總成績</t>
+  </si>
+  <si>
+    <t>補考成績</t>
+  </si>
+  <si>
+    <t>封存日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免修</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抵免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補修學年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>補修學期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>是否補修成績</t>
-  </si>
-  <si>
-    <t>修課及格標準</t>
-  </si>
-  <si>
-    <t>科別</t>
-  </si>
-  <si>
-    <t>必選修</t>
-  </si>
-  <si>
-    <t>重修成績</t>
-  </si>
-  <si>
-    <t>學號</t>
-  </si>
-  <si>
-    <t>學生系統編號</t>
-  </si>
-  <si>
-    <t>註記</t>
-  </si>
-  <si>
-    <t>學期</t>
-  </si>
-  <si>
-    <t>分項類別</t>
-  </si>
-  <si>
-    <t>學年調整成績</t>
-  </si>
-  <si>
-    <t>不需評分</t>
-  </si>
-  <si>
-    <t>修課補考標準</t>
-  </si>
-  <si>
-    <t>不計學分</t>
-  </si>
-  <si>
-    <t>重修學期</t>
-  </si>
-  <si>
-    <t>座號</t>
-  </si>
-  <si>
-    <t>班級</t>
-  </si>
-  <si>
-    <t>科目級別</t>
-  </si>
-  <si>
-    <t>學年度</t>
-  </si>
-  <si>
-    <t>修課直接指定總成績</t>
-  </si>
-  <si>
-    <t>補考成績</t>
-  </si>
-  <si>
-    <t>封存日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -482,11 +496,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG1"/>
+  <dimension ref="A1:AJ1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -511,57 +525,59 @@
     <col min="26" max="27" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" customWidth="1"/>
-    <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>32</v>
+      <c r="G1" t="s">
+        <v>30</v>
       </c>
       <c r="H1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
         <v>2</v>
@@ -573,49 +589,58 @@
         <v>3</v>
       </c>
       <c r="S1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="T1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="U1" t="s">
         <v>6</v>
       </c>
       <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>23</v>
-      </c>
       <c r="AB1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AC1" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" t="s">
-        <v>8</v>
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="AE1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AF1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AG1" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ExportSemsArchive/Resources/學期成績封存樣板.xlsx
+++ b/ExportSemsArchive/Resources/學期成績封存樣板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ischool Work\Visual Studio Project\SHEvaluation\ExportSemsArchive\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\Visual Studio Project\SHEvaluation\ExportSemsArchive\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ADFB63-8DCF-4781-A02C-8A82C44A0A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24ECC4BD-9E02-4353-A964-0689CB4C4F9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="匯出學期科目成績" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>姓名</t>
   </si>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>是否補修成績</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定學年科目名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,44 +500,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1"/>
+  <dimension ref="A1:AK1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="6.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.44140625" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -641,6 +646,9 @@
       </c>
       <c r="AJ1" t="s">
         <v>32</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
